--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>8173251.648286572</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>32579752.04800449</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.230699225176547e-10</v>
+        <v>346176.0514968734</v>
       </c>
     </row>
     <row r="11">
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8385,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -22652,7 +22652,7 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>169.0363433314465</v>
@@ -22746,7 +22746,7 @@
         <v>168.9169769112482</v>
       </c>
       <c r="P4" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
         <v>184.8361019879239</v>
@@ -22810,10 +22810,10 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K5" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
         <v>281.0224045372727</v>
@@ -22822,16 +22822,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
         <v>236.785106778059</v>
@@ -22977,16 +22977,16 @@
         <v>169.4894564160782</v>
       </c>
       <c r="N7" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O7" t="n">
         <v>168.9169769112482</v>
       </c>
       <c r="P7" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
         <v>211.6331360021768</v>
@@ -23524,7 +23524,7 @@
         <v>268.5096182748763</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -23533,10 +23533,10 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P14" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q14" t="n">
         <v>271.2129416468284</v>
@@ -23776,10 +23776,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R17" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S17" t="n">
         <v>236.785106778059</v>
@@ -24016,7 +24016,7 @@
         <v>271.2129416468284</v>
       </c>
       <c r="R20" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S20" t="n">
         <v>236.785106778059</v>
@@ -24159,19 +24159,19 @@
         <v>164.5593050631107</v>
       </c>
       <c r="M22" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N22" t="n">
         <v>155.7763642475845</v>
       </c>
       <c r="O22" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P22" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q22" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R22" t="n">
         <v>211.6331360021768</v>
@@ -24250,10 +24250,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R23" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S23" t="n">
         <v>236.785106778059</v>
@@ -25262,7 +25262,7 @@
         <v>168.166555548718</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -25353,7 +25353,7 @@
         <v>168.9169769112482</v>
       </c>
       <c r="P37" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q37" t="n">
         <v>184.8361019879239</v>
@@ -25493,7 +25493,7 @@
         <v>121.4173036</v>
       </c>
       <c r="J39" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K39" t="n">
         <v>168.166555548718</v>
@@ -25727,7 +25727,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I42" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J42" t="n">
         <v>154.7419045333334</v>
@@ -25888,7 +25888,7 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J44" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K44" t="n">
         <v>268.5096182748763</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>16383.04414956793</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>167972.8996879272</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>102566.4444596129</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>25455.42158023613</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>20975.79183614473</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>25455.42158023613</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>16448.50437809608</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>6149.26813517799</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>493.8172973007946</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.793967723846435e-11</v>
+        <v>15481.79617096515</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1384.482604188841</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14194.89293137413</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -26325,16 +26325,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8667.586855741934</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2151.162387062212</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1772.602126998149</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2151.162387062212</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26346,16 +26346,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1390.014454486995</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>519.65646212772</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.73103920852008</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1308.320803180156</v>
       </c>
     </row>
     <row r="3">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1615.229704886981</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16560.70841993649</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10112.18466503226</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2509.68945157258</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2068.035814831174</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2509.68945157258</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -26450,16 +26450,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1621.683530234828</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>606.2658724823402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>48.6862124099401</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1526.374270376848</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.5637214634</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.5637214634</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
